--- a/config_6.22/fish_3d_yutu_random_4.xlsx
+++ b/config_6.22/fish_3d_yutu_random_4.xlsx
@@ -300,8 +300,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -333,24 +333,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -362,12 +375,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,78 +389,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,11 +411,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -502,7 +502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,19 +538,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,31 +592,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,49 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,37 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,6 +707,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,8 +753,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,7 +763,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,9 +785,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,17 +808,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -815,10 +815,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,133 +827,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I22"/>
+      <selection activeCell="I18" sqref="I18:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2022,10 +2022,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J18" s="9">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2050,10 +2050,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J19" s="9">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2078,10 +2078,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J20" s="9">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2106,10 +2106,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J21" s="9">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2134,10 +2134,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="9">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J22" s="9">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_6.22/fish_3d_yutu_random_4.xlsx
+++ b/config_6.22/fish_3d_yutu_random_4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
   <si>
     <t>no</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>185,186,187</t>
+  </si>
+  <si>
+    <t>202</t>
   </si>
 </sst>
 </file>
@@ -299,12 +302,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +320,13 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -333,14 +343,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,8 +364,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,6 +382,14 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -382,10 +408,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,15 +423,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,14 +449,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,30 +463,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,9 +477,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,31 +512,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +554,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,13 +584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,61 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,13 +620,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,25 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +731,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -750,34 +784,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -794,31 +810,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,140 +837,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -977,20 +987,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1002,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
@@ -1343,28 +1356,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1410,10 +1423,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1459,10 +1472,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1516,10 +1529,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1565,10 +1578,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1608,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2133,11 +2146,11 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="9">
-        <v>1624320000</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1624895999</v>
+      <c r="I22" s="10">
+        <v>1623167999</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1623254399</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -2159,10 +2172,10 @@
       <c r="F23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="11">
         <v>1613433600</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="11">
         <v>1614009599</v>
       </c>
     </row>
@@ -2185,10 +2198,10 @@
       <c r="F24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="11">
         <v>1613433600</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="11">
         <v>1614009599</v>
       </c>
     </row>
@@ -2211,10 +2224,10 @@
       <c r="F25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="11">
         <v>1613433600</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="11">
         <v>1614009599</v>
       </c>
     </row>
@@ -2237,10 +2250,10 @@
       <c r="F26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="11">
         <v>1613433600</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="11">
         <v>1614009599</v>
       </c>
     </row>
@@ -2263,10 +2276,10 @@
       <c r="F27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="11">
         <v>1613433600</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="11">
         <v>1614009599</v>
       </c>
     </row>
@@ -2289,10 +2302,10 @@
       <c r="F28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="11">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="11">
         <v>1614614399</v>
       </c>
     </row>
@@ -2315,10 +2328,10 @@
       <c r="F29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="11">
         <v>1614038400</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="11">
         <v>1614614399</v>
       </c>
     </row>
@@ -2341,10 +2354,10 @@
       <c r="F30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="11">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="11">
         <v>1614614399</v>
       </c>
     </row>
@@ -2367,10 +2380,10 @@
       <c r="F31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="11">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="11">
         <v>1614614399</v>
       </c>
     </row>
@@ -2393,30 +2406,52 @@
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="11">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="11">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="16.5" spans="3:10">
-      <c r="C33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+    <row r="33" customFormat="1" ht="13" customHeight="1" spans="1:10">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="9">
+        <v>1624320000</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1624895999</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="3:10">
       <c r="C34" s="7"/>
       <c r="F34" s="8"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="16.5" spans="3:10">
       <c r="C35" s="7"/>
       <c r="F35" s="8"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2436,480 +2471,480 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="13.125" style="19" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="18" style="20" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="19" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="13.125" style="20" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="18" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="23">
         <v>15</v>
       </c>
-      <c r="D2" s="22">
-        <v>2</v>
-      </c>
-      <c r="E2" s="22">
+      <c r="D2" s="23">
+        <v>2</v>
+      </c>
+      <c r="E2" s="23">
         <v>5</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="20">
+      <c r="F2" s="23"/>
+      <c r="G2" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="21">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="21">
         <v>16</v>
       </c>
-      <c r="D3" s="20">
-        <v>2</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20">
+      <c r="D3" s="21">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="21">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="21">
         <v>17</v>
       </c>
-      <c r="D4" s="20">
-        <v>2</v>
-      </c>
-      <c r="E4" s="20">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22">
+      <c r="D4" s="21">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
         <v>1200</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="23">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="21">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="19">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>21</v>
       </c>
-      <c r="D5" s="22">
-        <v>2</v>
-      </c>
-      <c r="E5" s="22">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="20">
+      <c r="D5" s="23">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="21">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>22</v>
       </c>
-      <c r="D6" s="22">
-        <v>2</v>
-      </c>
-      <c r="E6" s="22">
-        <v>2</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="D6" s="23">
+        <v>2</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2</v>
+      </c>
+      <c r="G6" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="21">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>23</v>
       </c>
-      <c r="D7" s="22">
-        <v>2</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="D7" s="23">
+        <v>2</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="21">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>24</v>
       </c>
-      <c r="D8" s="22">
-        <v>2</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="D8" s="23">
+        <v>2</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="21">
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" spans="1:8">
-      <c r="A9" s="18">
+    <row r="9" s="19" customFormat="1" spans="1:8">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="24">
         <v>65</v>
       </c>
-      <c r="D9" s="23">
-        <v>2</v>
-      </c>
-      <c r="E9" s="23">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23">
+      <c r="D9" s="24">
+        <v>2</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="24">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" s="18" customFormat="1" spans="1:8">
-      <c r="A10" s="18">
+    <row r="10" s="19" customFormat="1" spans="1:8">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="24">
         <v>66</v>
       </c>
-      <c r="D10" s="23">
-        <v>2</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23">
+      <c r="D10" s="24">
+        <v>2</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="24">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" s="18" customFormat="1" spans="1:8">
-      <c r="A11" s="18">
+    <row r="11" s="19" customFormat="1" spans="1:8">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="24">
         <v>67</v>
       </c>
-      <c r="D11" s="23">
-        <v>2</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23">
+      <c r="D11" s="24">
+        <v>2</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="24">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" s="18" customFormat="1" spans="1:8">
-      <c r="A12" s="18">
+    <row r="12" s="19" customFormat="1" spans="1:8">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="24">
         <v>68</v>
       </c>
-      <c r="D12" s="23">
-        <v>2</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="24">
+        <v>2</v>
+      </c>
+      <c r="E12" s="24">
         <v>5</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23">
+      <c r="F12" s="24"/>
+      <c r="G12" s="24">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="24">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" s="18" customFormat="1" spans="1:8">
-      <c r="A13" s="18">
+    <row r="13" s="19" customFormat="1" spans="1:8">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="15">
         <v>70</v>
       </c>
-      <c r="D13" s="23">
-        <v>2</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="14">
+      <c r="D13" s="24">
+        <v>2</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" s="18" customFormat="1" spans="1:8">
-      <c r="A14" s="18">
+    <row r="14" s="19" customFormat="1" spans="1:8">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <v>71</v>
       </c>
-      <c r="D14" s="23">
-        <v>2</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="14">
+      <c r="D14" s="24">
+        <v>2</v>
+      </c>
+      <c r="E14" s="24">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" s="18" customFormat="1" spans="1:8">
-      <c r="A15" s="18">
+    <row r="15" s="19" customFormat="1" spans="1:8">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>72</v>
       </c>
-      <c r="D15" s="23">
-        <v>2</v>
-      </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="14">
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" s="18" customFormat="1" spans="1:8">
-      <c r="A16" s="18">
+    <row r="16" s="19" customFormat="1" spans="1:8">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>73</v>
       </c>
-      <c r="D16" s="23">
-        <v>2</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="24">
+        <v>2</v>
+      </c>
+      <c r="E16" s="24">
         <v>5</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="14">
+      <c r="F16" s="24"/>
+      <c r="G16" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="15">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2929,14 +2964,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2968,17 +3003,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3119,20 +3154,20 @@
     <col min="6" max="16384" width="10.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3140,7 +3175,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
@@ -3152,122 +3187,122 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="17"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="17"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21"/>
@@ -3338,17 +3373,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3499,17 +3534,17 @@
     <col min="1" max="16384" width="10.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3573,10 +3608,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3638,10 +3673,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>43</v>
       </c>
     </row>

--- a/config_6.22/fish_3d_yutu_random_4.xlsx
+++ b/config_6.22/fish_3d_yutu_random_4.xlsx
@@ -294,7 +294,7 @@
     <t>185,186,187</t>
   </si>
   <si>
-    <t>202</t>
+    <t>202,</t>
   </si>
 </sst>
 </file>
@@ -302,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -343,14 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,11 +357,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,14 +393,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,15 +410,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,40 +452,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,15 +475,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,37 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,13 +524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +554,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,19 +596,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,31 +668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,49 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,41 +730,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,6 +771,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -810,25 +789,46 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,138 +837,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
